--- a/Farwater_ZRS/R_calc_for_Farwater/Data/Материалы отчетов ЗИН_2005_2011.xlsx
+++ b/Farwater_ZRS/R_calc_for_Farwater/Data/Материалы отчетов ЗИН_2005_2011.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$R$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Abundance!$A$1:$D$515</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Abundance!$A$1:$AO$515</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2064,14 +2064,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2627,7 +2624,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -2991,7 +2988,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" hidden="1" spans="1:10">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" hidden="1" spans="1:10">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3273,7 +3270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="28.5" customHeight="1" spans="1:18">
+    <row r="21" ht="28.5" hidden="1" customHeight="1" spans="1:18">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3304,16 +3301,16 @@
       <c r="J21">
         <v>7</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" hidden="1" spans="1:10">
       <c r="A22" t="s">
@@ -3375,12 +3372,12 @@
       <c r="I23">
         <v>25.425</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" hidden="1" spans="1:14">
       <c r="A24" t="s">
@@ -3413,12 +3410,12 @@
       <c r="J24">
         <v>-0.5</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" hidden="1" spans="1:14">
       <c r="A25" t="s">
@@ -3451,12 +3448,12 @@
       <c r="J25">
         <v>-0.5</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" hidden="1" spans="1:10">
       <c r="A26" t="s">
@@ -3522,7 +3519,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:10">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:10">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3974,10 +3971,9 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R41" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
       <filters>
-        <filter val="ZIN_2007_Bank4"/>
-        <filter val="ZIN_2006_Bank4"/>
-        <filter val="ZIN_2007_Bank6"/>
-        <filter val="ZIN_2006_Bank6"/>
+        <filter val="ZIN_2011_St5"/>
+        <filter val="ZIN_2010_St5"/>
+        <filter val="ZIN_2009_St5"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -3995,20 +3991,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BQ515"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S204" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AG9" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T226" sqref="T226"/>
+      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="8.85185185185185" style="2"/>
+    <col min="1" max="1" width="35.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="5" width="8.85185185185185" style="2"/>
     <col min="6" max="6" width="15.7777777777778" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.7777777777778" style="2" customWidth="1"/>
@@ -4076,7 +4073,7 @@
     <col min="70" max="16384" width="8.85185185185185" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -4131,13 +4128,13 @@
       <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -4152,82 +4149,54 @@
       <c r="Y1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:41">
       <c r="A2" s="1" t="s">
@@ -21394,7 +21363,7 @@
       <c r="M139" s="2">
         <v>0</v>
       </c>
-      <c r="N139" s="4">
+      <c r="N139" s="3">
         <f>4.25+0.097</f>
         <v>4.347</v>
       </c>
@@ -34196,7 +34165,7 @@
       <c r="AD241" s="2">
         <v>0.456</v>
       </c>
-      <c r="AE241" s="5">
+      <c r="AE241" s="4">
         <v>0.611</v>
       </c>
       <c r="AF241" s="2">
@@ -34208,19 +34177,19 @@
       <c r="AH241" s="2">
         <v>0</v>
       </c>
-      <c r="AI241" s="5">
+      <c r="AI241" s="4">
         <v>0.254</v>
       </c>
-      <c r="AJ241" s="5">
+      <c r="AJ241" s="4">
         <v>0.013</v>
       </c>
       <c r="AK241" s="2">
         <v>0.158</v>
       </c>
-      <c r="AL241" s="5">
+      <c r="AL241" s="4">
         <v>0.075</v>
       </c>
-      <c r="AM241" s="5">
+      <c r="AM241" s="4">
         <v>0.585</v>
       </c>
       <c r="AN241" s="2">
@@ -36355,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:41">
+    <row r="259" hidden="1" spans="1:41">
       <c r="A259" s="1" t="s">
         <v>77</v>
       </c>
@@ -36480,7 +36449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:41">
+    <row r="260" hidden="1" spans="1:41">
       <c r="A260" s="1" t="s">
         <v>81</v>
       </c>
@@ -36605,7 +36574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:41">
+    <row r="261" hidden="1" spans="1:41">
       <c r="A261" s="1" t="s">
         <v>84</v>
       </c>
@@ -36730,7 +36699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:41">
+    <row r="262" hidden="1" spans="1:41">
       <c r="A262" s="1" t="s">
         <v>88</v>
       </c>
@@ -36855,7 +36824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:41">
+    <row r="263" hidden="1" spans="1:41">
       <c r="A263" s="1" t="s">
         <v>89</v>
       </c>
@@ -36980,7 +36949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:41">
+    <row r="264" hidden="1" spans="1:41">
       <c r="A264" s="1" t="s">
         <v>92</v>
       </c>
@@ -37105,7 +37074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:41">
+    <row r="265" hidden="1" spans="1:41">
       <c r="A265" s="1" t="s">
         <v>93</v>
       </c>
@@ -37230,7 +37199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:41">
+    <row r="266" hidden="1" spans="1:41">
       <c r="A266" s="1" t="s">
         <v>94</v>
       </c>
@@ -37355,7 +37324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:41">
+    <row r="267" hidden="1" spans="1:41">
       <c r="A267" s="1" t="s">
         <v>95</v>
       </c>
@@ -37480,7 +37449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:41">
+    <row r="268" hidden="1" spans="1:41">
       <c r="A268" s="1" t="s">
         <v>97</v>
       </c>
@@ -37605,7 +37574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:41">
+    <row r="269" hidden="1" spans="1:41">
       <c r="A269" s="1" t="s">
         <v>98</v>
       </c>
@@ -37730,7 +37699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:41">
+    <row r="270" hidden="1" spans="1:41">
       <c r="A270" s="1" t="s">
         <v>102</v>
       </c>
@@ -37855,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:41">
+    <row r="271" hidden="1" spans="1:41">
       <c r="A271" s="1" t="s">
         <v>104</v>
       </c>
@@ -37980,7 +37949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:41">
+    <row r="272" hidden="1" spans="1:41">
       <c r="A272" s="1" t="s">
         <v>105</v>
       </c>
@@ -38105,7 +38074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:41">
+    <row r="273" hidden="1" spans="1:41">
       <c r="A273" s="1" t="s">
         <v>107</v>
       </c>
@@ -38230,7 +38199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:41">
+    <row r="274" hidden="1" spans="1:41">
       <c r="A274" s="1" t="s">
         <v>108</v>
       </c>
@@ -38355,7 +38324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:41">
+    <row r="275" hidden="1" spans="1:41">
       <c r="A275" s="1" t="s">
         <v>111</v>
       </c>
@@ -38480,7 +38449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:41">
+    <row r="276" hidden="1" spans="1:41">
       <c r="A276" s="1" t="s">
         <v>114</v>
       </c>
@@ -38605,7 +38574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="277" spans="1:41">
+    <row r="277" hidden="1" spans="1:41">
       <c r="A277" s="1" t="s">
         <v>118</v>
       </c>
@@ -38730,7 +38699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:41">
+    <row r="278" hidden="1" spans="1:41">
       <c r="A278" s="1" t="s">
         <v>120</v>
       </c>
@@ -38855,7 +38824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:41">
+    <row r="279" hidden="1" spans="1:41">
       <c r="A279" s="1" t="s">
         <v>121</v>
       </c>
@@ -38980,7 +38949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:41">
+    <row r="280" hidden="1" spans="1:41">
       <c r="A280" s="1" t="s">
         <v>122</v>
       </c>
@@ -39105,7 +39074,7 @@
         <v>87.333</v>
       </c>
     </row>
-    <row r="281" spans="1:41">
+    <row r="281" hidden="1" spans="1:41">
       <c r="A281" s="1" t="s">
         <v>123</v>
       </c>
@@ -39230,7 +39199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:41">
+    <row r="282" hidden="1" spans="1:41">
       <c r="A282" s="1" t="s">
         <v>125</v>
       </c>
@@ -39355,7 +39324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:41">
+    <row r="283" hidden="1" spans="1:41">
       <c r="A283" s="1" t="s">
         <v>127</v>
       </c>
@@ -39480,7 +39449,7 @@
         <v>349.333</v>
       </c>
     </row>
-    <row r="284" spans="1:41">
+    <row r="284" hidden="1" spans="1:41">
       <c r="A284" s="1" t="s">
         <v>128</v>
       </c>
@@ -39605,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:41">
+    <row r="285" hidden="1" spans="1:41">
       <c r="A285" s="1" t="s">
         <v>130</v>
       </c>
@@ -39730,7 +39699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:41">
+    <row r="286" hidden="1" spans="1:41">
       <c r="A286" s="1" t="s">
         <v>132</v>
       </c>
@@ -39855,7 +39824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:41">
+    <row r="287" hidden="1" spans="1:41">
       <c r="A287" s="1" t="s">
         <v>133</v>
       </c>
@@ -39980,7 +39949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:41">
+    <row r="288" hidden="1" spans="1:41">
       <c r="A288" s="1" t="s">
         <v>135</v>
       </c>
@@ -40105,7 +40074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:41">
+    <row r="289" hidden="1" spans="1:41">
       <c r="A289" s="1" t="s">
         <v>136</v>
       </c>
@@ -40230,7 +40199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:41">
+    <row r="290" hidden="1" spans="1:41">
       <c r="A290" s="1" t="s">
         <v>137</v>
       </c>
@@ -40355,7 +40324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:41">
+    <row r="291" hidden="1" spans="1:41">
       <c r="A291" s="1" t="s">
         <v>139</v>
       </c>
@@ -40480,7 +40449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:41">
+    <row r="292" hidden="1" spans="1:41">
       <c r="A292" s="1" t="s">
         <v>133</v>
       </c>
@@ -40605,7 +40574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:41">
+    <row r="293" hidden="1" spans="1:41">
       <c r="A293" s="1" t="s">
         <v>141</v>
       </c>
@@ -40730,7 +40699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:41">
+    <row r="294" hidden="1" spans="1:41">
       <c r="A294" s="2" t="s">
         <v>142</v>
       </c>
@@ -40855,7 +40824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:41">
+    <row r="295" hidden="1" spans="1:41">
       <c r="A295" s="2" t="s">
         <v>143</v>
       </c>
@@ -40980,7 +40949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:41">
+    <row r="296" hidden="1" spans="1:41">
       <c r="A296" s="2" t="s">
         <v>145</v>
       </c>
@@ -41105,7 +41074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:41">
+    <row r="297" hidden="1" spans="1:41">
       <c r="A297" s="2" t="s">
         <v>146</v>
       </c>
@@ -41230,7 +41199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:41">
+    <row r="298" hidden="1" spans="1:41">
       <c r="A298" s="2" t="s">
         <v>148</v>
       </c>
@@ -41355,7 +41324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:41">
+    <row r="299" hidden="1" spans="1:41">
       <c r="A299" s="2" t="s">
         <v>152</v>
       </c>
@@ -41480,7 +41449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:41">
+    <row r="300" hidden="1" spans="1:41">
       <c r="A300" s="2" t="s">
         <v>154</v>
       </c>
@@ -41605,7 +41574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:41">
+    <row r="301" hidden="1" spans="1:41">
       <c r="A301" s="2" t="s">
         <v>156</v>
       </c>
@@ -41730,7 +41699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:41">
+    <row r="302" hidden="1" spans="1:41">
       <c r="A302" s="2" t="s">
         <v>158</v>
       </c>
@@ -41855,7 +41824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:41">
+    <row r="303" hidden="1" spans="1:41">
       <c r="A303" s="2" t="s">
         <v>160</v>
       </c>
@@ -41980,7 +41949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" hidden="1" spans="1:41">
       <c r="A304" s="2" t="s">
         <v>161</v>
       </c>
@@ -42105,7 +42074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:41">
+    <row r="305" hidden="1" spans="1:41">
       <c r="A305" s="2" t="s">
         <v>162</v>
       </c>
@@ -42230,7 +42199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:41">
+    <row r="306" hidden="1" spans="1:41">
       <c r="A306" s="2" t="s">
         <v>163</v>
       </c>
@@ -42355,7 +42324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:41">
+    <row r="307" hidden="1" spans="1:41">
       <c r="A307" s="2" t="s">
         <v>164</v>
       </c>
@@ -42480,7 +42449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:41">
+    <row r="308" hidden="1" spans="1:41">
       <c r="A308" s="2" t="s">
         <v>166</v>
       </c>
@@ -42605,7 +42574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:41">
+    <row r="309" hidden="1" spans="1:41">
       <c r="A309" s="2" t="s">
         <v>168</v>
       </c>
@@ -42730,7 +42699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:41">
+    <row r="310" hidden="1" spans="1:41">
       <c r="A310" s="2" t="s">
         <v>169</v>
       </c>
@@ -42855,7 +42824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:41">
+    <row r="311" hidden="1" spans="1:41">
       <c r="A311" s="2" t="s">
         <v>170</v>
       </c>
@@ -42980,7 +42949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:41">
+    <row r="312" hidden="1" spans="1:41">
       <c r="A312" s="2" t="s">
         <v>172</v>
       </c>
@@ -43105,7 +43074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:41">
+    <row r="313" hidden="1" spans="1:41">
       <c r="A313" s="2" t="s">
         <v>173</v>
       </c>
@@ -43230,7 +43199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:41">
+    <row r="314" hidden="1" spans="1:41">
       <c r="A314" s="2" t="s">
         <v>174</v>
       </c>
@@ -43355,7 +43324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:41">
+    <row r="315" hidden="1" spans="1:41">
       <c r="A315" s="2" t="s">
         <v>175</v>
       </c>
@@ -43480,7 +43449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:41">
+    <row r="316" hidden="1" spans="1:41">
       <c r="A316" s="2" t="s">
         <v>178</v>
       </c>
@@ -43605,7 +43574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:41">
+    <row r="317" hidden="1" spans="1:41">
       <c r="A317" s="2" t="s">
         <v>180</v>
       </c>
@@ -43730,7 +43699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:41">
+    <row r="318" hidden="1" spans="1:41">
       <c r="A318" s="2" t="s">
         <v>183</v>
       </c>
@@ -43855,7 +43824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:41">
+    <row r="319" hidden="1" spans="1:41">
       <c r="A319" s="2" t="s">
         <v>185</v>
       </c>
@@ -43980,7 +43949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:41">
+    <row r="320" hidden="1" spans="1:41">
       <c r="A320" s="2" t="s">
         <v>186</v>
       </c>
@@ -44105,7 +44074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:41">
+    <row r="321" hidden="1" spans="1:41">
       <c r="A321" s="2" t="s">
         <v>187</v>
       </c>
@@ -44230,7 +44199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:41">
+    <row r="322" hidden="1" spans="1:41">
       <c r="A322" s="2" t="s">
         <v>189</v>
       </c>
@@ -44355,7 +44324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:41">
+    <row r="323" hidden="1" spans="1:41">
       <c r="A323" s="2" t="s">
         <v>190</v>
       </c>
@@ -44480,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:41">
+    <row r="324" hidden="1" spans="1:41">
       <c r="A324" s="2" t="s">
         <v>191</v>
       </c>
@@ -44605,7 +44574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:41">
+    <row r="325" hidden="1" spans="1:41">
       <c r="A325" s="2" t="s">
         <v>193</v>
       </c>
@@ -44730,7 +44699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:41">
+    <row r="326" hidden="1" spans="1:41">
       <c r="A326" s="2" t="s">
         <v>195</v>
       </c>
@@ -44855,7 +44824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:41">
+    <row r="327" hidden="1" spans="1:41">
       <c r="A327" s="2" t="s">
         <v>197</v>
       </c>
@@ -44980,7 +44949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:41">
+    <row r="328" hidden="1" spans="1:41">
       <c r="A328" s="2" t="s">
         <v>199</v>
       </c>
@@ -45105,7 +45074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:41">
+    <row r="329" hidden="1" spans="1:41">
       <c r="A329" s="2" t="s">
         <v>200</v>
       </c>
@@ -45230,7 +45199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:41">
+    <row r="330" hidden="1" spans="1:41">
       <c r="A330" s="2" t="s">
         <v>201</v>
       </c>
@@ -45355,7 +45324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:41">
+    <row r="331" hidden="1" spans="1:41">
       <c r="A331" s="2" t="s">
         <v>202</v>
       </c>
@@ -45480,7 +45449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:41">
+    <row r="332" hidden="1" spans="1:41">
       <c r="A332" s="2" t="s">
         <v>205</v>
       </c>
@@ -45605,7 +45574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:41">
+    <row r="333" hidden="1" spans="1:41">
       <c r="A333" s="2" t="s">
         <v>206</v>
       </c>
@@ -45730,7 +45699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:41">
+    <row r="334" hidden="1" spans="1:41">
       <c r="A334" s="2" t="s">
         <v>207</v>
       </c>
@@ -45855,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:41">
+    <row r="335" hidden="1" spans="1:41">
       <c r="A335" s="2" t="s">
         <v>209</v>
       </c>
@@ -45980,7 +45949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:41">
+    <row r="336" hidden="1" spans="1:41">
       <c r="A336" s="2" t="s">
         <v>210</v>
       </c>
@@ -46105,7 +46074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:41">
+    <row r="337" hidden="1" spans="1:41">
       <c r="A337" s="2" t="s">
         <v>211</v>
       </c>
@@ -46230,7 +46199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:41">
+    <row r="338" hidden="1" spans="1:41">
       <c r="A338" s="2" t="s">
         <v>212</v>
       </c>
@@ -46355,7 +46324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:41">
+    <row r="339" hidden="1" spans="1:41">
       <c r="A339" s="2" t="s">
         <v>213</v>
       </c>
@@ -46480,7 +46449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:41">
+    <row r="340" hidden="1" spans="1:41">
       <c r="A340" s="2" t="s">
         <v>214</v>
       </c>
@@ -46605,7 +46574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:41">
+    <row r="341" hidden="1" spans="1:41">
       <c r="A341" s="2" t="s">
         <v>216</v>
       </c>
@@ -46730,7 +46699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:41">
+    <row r="342" hidden="1" spans="1:41">
       <c r="A342" s="2" t="s">
         <v>218</v>
       </c>
@@ -46855,7 +46824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:41">
+    <row r="343" hidden="1" spans="1:41">
       <c r="A343" s="2" t="s">
         <v>220</v>
       </c>
@@ -46980,7 +46949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:41">
+    <row r="344" hidden="1" spans="1:41">
       <c r="A344" s="2" t="s">
         <v>221</v>
       </c>
@@ -47105,7 +47074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:41">
+    <row r="345" hidden="1" spans="1:41">
       <c r="A345" s="2" t="s">
         <v>222</v>
       </c>
@@ -47230,7 +47199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:41">
+    <row r="346" hidden="1" spans="1:41">
       <c r="A346" s="2" t="s">
         <v>224</v>
       </c>
@@ -47355,7 +47324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:41">
+    <row r="347" hidden="1" spans="1:41">
       <c r="A347" s="2" t="s">
         <v>225</v>
       </c>
@@ -47480,7 +47449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:41">
+    <row r="348" hidden="1" spans="1:41">
       <c r="A348" s="2" t="s">
         <v>227</v>
       </c>
@@ -47605,7 +47574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:41">
+    <row r="349" hidden="1" spans="1:41">
       <c r="A349" s="2" t="s">
         <v>231</v>
       </c>
@@ -47730,7 +47699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:41">
+    <row r="350" hidden="1" spans="1:41">
       <c r="A350" s="2" t="s">
         <v>232</v>
       </c>
@@ -47855,7 +47824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:41">
+    <row r="351" hidden="1" spans="1:41">
       <c r="A351" s="2" t="s">
         <v>233</v>
       </c>
@@ -47980,7 +47949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:41">
+    <row r="352" hidden="1" spans="1:41">
       <c r="A352" s="2" t="s">
         <v>235</v>
       </c>
@@ -48105,7 +48074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:41">
+    <row r="353" hidden="1" spans="1:41">
       <c r="A353" s="2" t="s">
         <v>236</v>
       </c>
@@ -48230,7 +48199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:41">
+    <row r="354" hidden="1" spans="1:41">
       <c r="A354" s="2" t="s">
         <v>237</v>
       </c>
@@ -48355,7 +48324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:41">
+    <row r="355" hidden="1" spans="1:41">
       <c r="A355" s="2" t="s">
         <v>239</v>
       </c>
@@ -48480,7 +48449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:41">
+    <row r="356" hidden="1" spans="1:41">
       <c r="A356" s="2" t="s">
         <v>241</v>
       </c>
@@ -48605,7 +48574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:41">
+    <row r="357" hidden="1" spans="1:41">
       <c r="A357" s="2" t="s">
         <v>243</v>
       </c>
@@ -48730,7 +48699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:41">
+    <row r="358" hidden="1" spans="1:41">
       <c r="A358" s="2" t="s">
         <v>244</v>
       </c>
@@ -48855,7 +48824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:41">
+    <row r="359" hidden="1" spans="1:41">
       <c r="A359" s="2" t="s">
         <v>246</v>
       </c>
@@ -48980,7 +48949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:41">
+    <row r="360" hidden="1" spans="1:41">
       <c r="A360" s="2" t="s">
         <v>248</v>
       </c>
@@ -49105,7 +49074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:41">
+    <row r="361" hidden="1" spans="1:41">
       <c r="A361" s="2" t="s">
         <v>249</v>
       </c>
@@ -49230,7 +49199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:41">
+    <row r="362" hidden="1" spans="1:41">
       <c r="A362" s="2" t="s">
         <v>250</v>
       </c>
@@ -49355,7 +49324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:41">
+    <row r="363" hidden="1" spans="1:41">
       <c r="A363" s="2" t="s">
         <v>251</v>
       </c>
@@ -49480,7 +49449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:41">
+    <row r="364" hidden="1" spans="1:41">
       <c r="A364" s="2" t="s">
         <v>252</v>
       </c>
@@ -49605,7 +49574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:41">
+    <row r="365" hidden="1" spans="1:41">
       <c r="A365" s="2" t="s">
         <v>254</v>
       </c>
@@ -49730,7 +49699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:41">
+    <row r="366" hidden="1" spans="1:41">
       <c r="A366" s="2" t="s">
         <v>163</v>
       </c>
@@ -49855,7 +49824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:41">
+    <row r="367" hidden="1" spans="1:41">
       <c r="A367" s="2" t="s">
         <v>256</v>
       </c>
@@ -49980,7 +49949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:41">
+    <row r="368" hidden="1" spans="1:41">
       <c r="A368" s="2" t="s">
         <v>258</v>
       </c>
@@ -50105,7 +50074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:41">
+    <row r="369" hidden="1" spans="1:41">
       <c r="A369" s="2" t="s">
         <v>259</v>
       </c>
@@ -50230,7 +50199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:41">
+    <row r="370" hidden="1" spans="1:41">
       <c r="A370" s="2" t="s">
         <v>260</v>
       </c>
@@ -50355,7 +50324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:41">
+    <row r="371" hidden="1" spans="1:41">
       <c r="A371" s="2" t="s">
         <v>262</v>
       </c>
@@ -50480,7 +50449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:41">
+    <row r="372" hidden="1" spans="1:41">
       <c r="A372" s="2" t="s">
         <v>169</v>
       </c>
@@ -50605,7 +50574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:41">
+    <row r="373" hidden="1" spans="1:41">
       <c r="A373" s="2" t="s">
         <v>263</v>
       </c>
@@ -50730,7 +50699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:41">
+    <row r="374" hidden="1" spans="1:41">
       <c r="A374" s="2" t="s">
         <v>264</v>
       </c>
@@ -50855,7 +50824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:41">
+    <row r="375" hidden="1" spans="1:41">
       <c r="A375" s="2" t="s">
         <v>265</v>
       </c>
@@ -50980,7 +50949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:41">
+    <row r="376" hidden="1" spans="1:41">
       <c r="A376" s="2" t="s">
         <v>266</v>
       </c>
@@ -51105,7 +51074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:41">
+    <row r="377" hidden="1" spans="1:41">
       <c r="A377" s="2" t="s">
         <v>267</v>
       </c>
@@ -51230,7 +51199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:41">
+    <row r="378" hidden="1" spans="1:41">
       <c r="A378" s="2" t="s">
         <v>268</v>
       </c>
@@ -51355,7 +51324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:41">
+    <row r="379" hidden="1" spans="1:41">
       <c r="A379" s="2" t="s">
         <v>270</v>
       </c>
@@ -51480,7 +51449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:41">
+    <row r="380" hidden="1" spans="1:41">
       <c r="A380" s="2" t="s">
         <v>272</v>
       </c>
@@ -51605,7 +51574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:41">
+    <row r="381" hidden="1" spans="1:41">
       <c r="A381" s="2" t="s">
         <v>273</v>
       </c>
@@ -51730,7 +51699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:41">
+    <row r="382" hidden="1" spans="1:41">
       <c r="A382" s="2" t="s">
         <v>274</v>
       </c>
@@ -51855,7 +51824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:41">
+    <row r="383" hidden="1" spans="1:41">
       <c r="A383" s="2" t="s">
         <v>275</v>
       </c>
@@ -51980,7 +51949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:41">
+    <row r="384" hidden="1" spans="1:41">
       <c r="A384" s="2" t="s">
         <v>276</v>
       </c>
@@ -52105,7 +52074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:41">
+    <row r="385" hidden="1" spans="1:41">
       <c r="A385" s="2" t="s">
         <v>277</v>
       </c>
@@ -52230,7 +52199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:41">
+    <row r="386" hidden="1" spans="1:41">
       <c r="A386" s="2" t="s">
         <v>278</v>
       </c>
@@ -52355,7 +52324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:41">
+    <row r="387" hidden="1" spans="1:41">
       <c r="A387" s="2" t="s">
         <v>279</v>
       </c>
@@ -52480,7 +52449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:41">
+    <row r="388" hidden="1" spans="1:41">
       <c r="A388" s="2" t="s">
         <v>280</v>
       </c>
@@ -52605,7 +52574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:41">
+    <row r="389" hidden="1" spans="1:41">
       <c r="A389" s="2" t="s">
         <v>281</v>
       </c>
@@ -52730,7 +52699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:41">
+    <row r="390" hidden="1" spans="1:41">
       <c r="A390" s="2" t="s">
         <v>282</v>
       </c>
@@ -52855,7 +52824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:41">
+    <row r="391" hidden="1" spans="1:41">
       <c r="A391" s="2" t="s">
         <v>283</v>
       </c>
@@ -52980,7 +52949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:41">
+    <row r="392" hidden="1" spans="1:41">
       <c r="A392" s="2" t="s">
         <v>284</v>
       </c>
@@ -53105,7 +53074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:41">
+    <row r="393" hidden="1" spans="1:41">
       <c r="A393" s="2" t="s">
         <v>285</v>
       </c>
@@ -53230,7 +53199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:41">
+    <row r="394" hidden="1" spans="1:41">
       <c r="A394" s="2" t="s">
         <v>287</v>
       </c>
@@ -53355,7 +53324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:41">
+    <row r="395" hidden="1" spans="1:41">
       <c r="A395" s="2" t="s">
         <v>291</v>
       </c>
@@ -53480,7 +53449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:41">
+    <row r="396" hidden="1" spans="1:41">
       <c r="A396" s="2" t="s">
         <v>292</v>
       </c>
@@ -53605,7 +53574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:41">
+    <row r="397" hidden="1" spans="1:41">
       <c r="A397" s="2" t="s">
         <v>294</v>
       </c>
@@ -53730,7 +53699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:41">
+    <row r="398" hidden="1" spans="1:41">
       <c r="A398" s="2" t="s">
         <v>296</v>
       </c>
@@ -53855,7 +53824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:41">
+    <row r="399" hidden="1" spans="1:41">
       <c r="A399" s="2" t="s">
         <v>300</v>
       </c>
@@ -53980,7 +53949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:41">
+    <row r="400" hidden="1" spans="1:41">
       <c r="A400" s="2" t="s">
         <v>301</v>
       </c>
@@ -54105,7 +54074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:41">
+    <row r="401" hidden="1" spans="1:41">
       <c r="A401" s="2" t="s">
         <v>302</v>
       </c>
@@ -54230,7 +54199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:41">
+    <row r="402" hidden="1" spans="1:41">
       <c r="A402" s="2" t="s">
         <v>303</v>
       </c>
@@ -54355,7 +54324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:41">
+    <row r="403" hidden="1" spans="1:41">
       <c r="A403" s="2" t="s">
         <v>304</v>
       </c>
@@ -54480,7 +54449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:41">
+    <row r="404" hidden="1" spans="1:41">
       <c r="A404" s="2" t="s">
         <v>305</v>
       </c>
@@ -54605,7 +54574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:41">
+    <row r="405" hidden="1" spans="1:41">
       <c r="A405" s="2" t="s">
         <v>307</v>
       </c>
@@ -54730,7 +54699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:41">
+    <row r="406" hidden="1" spans="1:41">
       <c r="A406" s="2" t="s">
         <v>308</v>
       </c>
@@ -54855,7 +54824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:41">
+    <row r="407" hidden="1" spans="1:41">
       <c r="A407" s="2" t="s">
         <v>309</v>
       </c>
@@ -54980,7 +54949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:41">
+    <row r="408" hidden="1" spans="1:41">
       <c r="A408" s="2" t="s">
         <v>311</v>
       </c>
@@ -55105,7 +55074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:41">
+    <row r="409" hidden="1" spans="1:41">
       <c r="A409" s="2" t="s">
         <v>313</v>
       </c>
@@ -55230,7 +55199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:41">
+    <row r="410" hidden="1" spans="1:41">
       <c r="A410" s="2" t="s">
         <v>315</v>
       </c>
@@ -55355,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:41">
+    <row r="411" hidden="1" spans="1:41">
       <c r="A411" s="2" t="s">
         <v>316</v>
       </c>
@@ -55480,7 +55449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:41">
+    <row r="412" hidden="1" spans="1:41">
       <c r="A412" s="2" t="s">
         <v>317</v>
       </c>
@@ -55605,7 +55574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:41">
+    <row r="413" hidden="1" spans="1:41">
       <c r="A413" s="2" t="s">
         <v>318</v>
       </c>
@@ -55730,7 +55699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:41">
+    <row r="414" hidden="1" spans="1:41">
       <c r="A414" s="2" t="s">
         <v>319</v>
       </c>
@@ -55855,7 +55824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:41">
+    <row r="415" hidden="1" spans="1:41">
       <c r="A415" s="2" t="s">
         <v>321</v>
       </c>
@@ -55980,7 +55949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:41">
+    <row r="416" hidden="1" spans="1:41">
       <c r="A416" s="2" t="s">
         <v>323</v>
       </c>
@@ -56105,7 +56074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:41">
+    <row r="417" hidden="1" spans="1:41">
       <c r="A417" s="2" t="s">
         <v>325</v>
       </c>
@@ -56230,7 +56199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:41">
+    <row r="418" hidden="1" spans="1:41">
       <c r="A418" s="2" t="s">
         <v>326</v>
       </c>
@@ -56355,7 +56324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:41">
+    <row r="419" hidden="1" spans="1:41">
       <c r="A419" s="2" t="s">
         <v>327</v>
       </c>
@@ -56480,7 +56449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:41">
+    <row r="420" hidden="1" spans="1:41">
       <c r="A420" s="2" t="s">
         <v>328</v>
       </c>
@@ -56605,7 +56574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:41">
+    <row r="421" hidden="1" spans="1:41">
       <c r="A421" s="2" t="s">
         <v>329</v>
       </c>
@@ -56730,7 +56699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:41">
+    <row r="422" hidden="1" spans="1:41">
       <c r="A422" s="2" t="s">
         <v>331</v>
       </c>
@@ -56855,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:41">
+    <row r="423" hidden="1" spans="1:41">
       <c r="A423" s="2" t="s">
         <v>332</v>
       </c>
@@ -56980,7 +56949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:41">
+    <row r="424" hidden="1" spans="1:41">
       <c r="A424" s="2" t="s">
         <v>333</v>
       </c>
@@ -57105,7 +57074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:41">
+    <row r="425" hidden="1" spans="1:41">
       <c r="A425" s="2" t="s">
         <v>334</v>
       </c>
@@ -57230,7 +57199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:41">
+    <row r="426" hidden="1" spans="1:41">
       <c r="A426" s="2" t="s">
         <v>337</v>
       </c>
@@ -57355,7 +57324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:41">
+    <row r="427" hidden="1" spans="1:41">
       <c r="A427" s="2" t="s">
         <v>338</v>
       </c>
@@ -57480,7 +57449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:41">
+    <row r="428" hidden="1" spans="1:41">
       <c r="A428" s="2" t="s">
         <v>340</v>
       </c>
@@ -57605,7 +57574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:41">
+    <row r="429" hidden="1" spans="1:41">
       <c r="A429" s="2" t="s">
         <v>341</v>
       </c>
@@ -57730,7 +57699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:41">
+    <row r="430" hidden="1" spans="1:41">
       <c r="A430" s="2" t="s">
         <v>342</v>
       </c>
@@ -57855,7 +57824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:41">
+    <row r="431" hidden="1" spans="1:41">
       <c r="A431" s="2" t="s">
         <v>343</v>
       </c>
@@ -57980,7 +57949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:41">
+    <row r="432" hidden="1" spans="1:41">
       <c r="A432" s="2" t="s">
         <v>345</v>
       </c>
@@ -58105,7 +58074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:41">
+    <row r="433" hidden="1" spans="1:41">
       <c r="A433" s="2" t="s">
         <v>346</v>
       </c>
@@ -58230,7 +58199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:41">
+    <row r="434" hidden="1" spans="1:41">
       <c r="A434" s="2" t="s">
         <v>348</v>
       </c>
@@ -58355,7 +58324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:41">
+    <row r="435" hidden="1" spans="1:41">
       <c r="A435" s="2" t="s">
         <v>349</v>
       </c>
@@ -58480,7 +58449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:41">
+    <row r="436" hidden="1" spans="1:41">
       <c r="A436" s="2" t="s">
         <v>351</v>
       </c>
@@ -58605,7 +58574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:41">
+    <row r="437" hidden="1" spans="1:41">
       <c r="A437" s="2" t="s">
         <v>311</v>
       </c>
@@ -58730,7 +58699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:41">
+    <row r="438" hidden="1" spans="1:41">
       <c r="A438" s="2" t="s">
         <v>352</v>
       </c>
@@ -58855,7 +58824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:41">
+    <row r="439" hidden="1" spans="1:41">
       <c r="A439" s="2" t="s">
         <v>354</v>
       </c>
@@ -58980,7 +58949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:41">
+    <row r="440" hidden="1" spans="1:41">
       <c r="A440" s="2" t="s">
         <v>355</v>
       </c>
@@ -59105,7 +59074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:41">
+    <row r="441" hidden="1" spans="1:41">
       <c r="A441" s="2" t="s">
         <v>357</v>
       </c>
@@ -59230,7 +59199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:41">
+    <row r="442" hidden="1" spans="1:41">
       <c r="A442" s="2" t="s">
         <v>358</v>
       </c>
@@ -59355,7 +59324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:41">
+    <row r="443" hidden="1" spans="1:41">
       <c r="A443" s="2" t="s">
         <v>360</v>
       </c>
@@ -59480,7 +59449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:41">
+    <row r="444" hidden="1" spans="1:41">
       <c r="A444" s="2" t="s">
         <v>362</v>
       </c>
@@ -59605,7 +59574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:41">
+    <row r="445" hidden="1" spans="1:41">
       <c r="A445" s="2" t="s">
         <v>364</v>
       </c>
@@ -59730,7 +59699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:41">
+    <row r="446" hidden="1" spans="1:41">
       <c r="A446" s="2" t="s">
         <v>365</v>
       </c>
@@ -59855,7 +59824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:41">
+    <row r="447" hidden="1" spans="1:41">
       <c r="A447" s="2" t="s">
         <v>366</v>
       </c>
@@ -59980,7 +59949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:41">
+    <row r="448" hidden="1" spans="1:41">
       <c r="A448" s="2" t="s">
         <v>346</v>
       </c>
@@ -60105,7 +60074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:41">
+    <row r="449" hidden="1" spans="1:41">
       <c r="A449" s="2" t="s">
         <v>367</v>
       </c>
@@ -60230,7 +60199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:41">
+    <row r="450" hidden="1" spans="1:41">
       <c r="A450" s="2" t="s">
         <v>368</v>
       </c>
@@ -60355,7 +60324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:41">
+    <row r="451" hidden="1" spans="1:41">
       <c r="A451" s="2" t="s">
         <v>370</v>
       </c>
@@ -60480,7 +60449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:41">
+    <row r="452" hidden="1" spans="1:41">
       <c r="A452" s="2" t="s">
         <v>371</v>
       </c>
@@ -60605,7 +60574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:41">
+    <row r="453" hidden="1" spans="1:41">
       <c r="A453" s="2" t="s">
         <v>372</v>
       </c>
@@ -60730,7 +60699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:41">
+    <row r="454" hidden="1" spans="1:41">
       <c r="A454" s="2" t="s">
         <v>297</v>
       </c>
@@ -60855,7 +60824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:41">
+    <row r="455" hidden="1" spans="1:41">
       <c r="A455" s="2" t="s">
         <v>373</v>
       </c>
@@ -60980,7 +60949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:41">
+    <row r="456" hidden="1" spans="1:41">
       <c r="A456" s="2" t="s">
         <v>374</v>
       </c>
@@ -61105,7 +61074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:41">
+    <row r="457" hidden="1" spans="1:41">
       <c r="A457" s="2" t="s">
         <v>376</v>
       </c>
@@ -61230,7 +61199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:41">
+    <row r="458" hidden="1" spans="1:41">
       <c r="A458" s="2" t="s">
         <v>378</v>
       </c>
@@ -61355,7 +61324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:41">
+    <row r="459" hidden="1" spans="1:41">
       <c r="A459" s="2" t="s">
         <v>379</v>
       </c>
@@ -61480,7 +61449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:41">
+    <row r="460" hidden="1" spans="1:41">
       <c r="A460" s="2" t="s">
         <v>381</v>
       </c>
@@ -61605,7 +61574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:41">
+    <row r="461" hidden="1" spans="1:41">
       <c r="A461" s="2" t="s">
         <v>383</v>
       </c>
@@ -61730,7 +61699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:41">
+    <row r="462" hidden="1" spans="1:41">
       <c r="A462" s="2" t="s">
         <v>385</v>
       </c>
@@ -61855,7 +61824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:41">
+    <row r="463" hidden="1" spans="1:41">
       <c r="A463" s="2" t="s">
         <v>386</v>
       </c>
@@ -61980,7 +61949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:41">
+    <row r="464" hidden="1" spans="1:41">
       <c r="A464" s="2" t="s">
         <v>388</v>
       </c>
@@ -62105,7 +62074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:41">
+    <row r="465" hidden="1" spans="1:41">
       <c r="A465" s="2" t="s">
         <v>203</v>
       </c>
@@ -62230,7 +62199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:41">
+    <row r="466" hidden="1" spans="1:41">
       <c r="A466" s="2" t="s">
         <v>390</v>
       </c>
@@ -62355,7 +62324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:41">
+    <row r="467" hidden="1" spans="1:41">
       <c r="A467" s="2" t="s">
         <v>392</v>
       </c>
@@ -62480,7 +62449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:41">
+    <row r="468" hidden="1" spans="1:41">
       <c r="A468" s="2" t="s">
         <v>394</v>
       </c>
@@ -62605,7 +62574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:41">
+    <row r="469" hidden="1" spans="1:41">
       <c r="A469" s="2" t="s">
         <v>396</v>
       </c>
@@ -62730,7 +62699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:41">
+    <row r="470" hidden="1" spans="1:41">
       <c r="A470" s="2" t="s">
         <v>397</v>
       </c>
@@ -62855,7 +62824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:41">
+    <row r="471" hidden="1" spans="1:41">
       <c r="A471" s="2" t="s">
         <v>399</v>
       </c>
@@ -62980,7 +62949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:41">
+    <row r="472" hidden="1" spans="1:41">
       <c r="A472" s="2" t="s">
         <v>401</v>
       </c>
@@ -63105,7 +63074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:41">
+    <row r="473" hidden="1" spans="1:41">
       <c r="A473" s="2" t="s">
         <v>402</v>
       </c>
@@ -63230,7 +63199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:41">
+    <row r="474" hidden="1" spans="1:41">
       <c r="A474" s="2" t="s">
         <v>307</v>
       </c>
@@ -63355,7 +63324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:41">
+    <row r="475" hidden="1" spans="1:41">
       <c r="A475" s="2" t="s">
         <v>404</v>
       </c>
@@ -63480,7 +63449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:41">
+    <row r="476" hidden="1" spans="1:41">
       <c r="A476" s="2" t="s">
         <v>405</v>
       </c>
@@ -63605,7 +63574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:41">
+    <row r="477" hidden="1" spans="1:41">
       <c r="A477" s="2" t="s">
         <v>406</v>
       </c>
@@ -63730,7 +63699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:41">
+    <row r="478" hidden="1" spans="1:41">
       <c r="A478" s="2" t="s">
         <v>408</v>
       </c>
@@ -63855,7 +63824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:41">
+    <row r="479" hidden="1" spans="1:41">
       <c r="A479" s="2" t="s">
         <v>410</v>
       </c>
@@ -63980,7 +63949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:41">
+    <row r="480" hidden="1" spans="1:41">
       <c r="A480" s="2" t="s">
         <v>411</v>
       </c>
@@ -64105,7 +64074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:41">
+    <row r="481" hidden="1" spans="1:41">
       <c r="A481" s="2" t="s">
         <v>413</v>
       </c>
@@ -64230,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:41">
+    <row r="482" hidden="1" spans="1:41">
       <c r="A482" s="2" t="s">
         <v>414</v>
       </c>
@@ -64355,7 +64324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:41">
+    <row r="483" hidden="1" spans="1:41">
       <c r="A483" s="2" t="s">
         <v>416</v>
       </c>
@@ -64480,7 +64449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:41">
+    <row r="484" hidden="1" spans="1:41">
       <c r="A484" s="2" t="s">
         <v>417</v>
       </c>
@@ -64605,7 +64574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:41">
+    <row r="485" hidden="1" spans="1:41">
       <c r="A485" s="2" t="s">
         <v>419</v>
       </c>
@@ -64730,7 +64699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:41">
+    <row r="486" hidden="1" spans="1:41">
       <c r="A486" s="2" t="s">
         <v>421</v>
       </c>
@@ -64855,7 +64824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:41">
+    <row r="487" hidden="1" spans="1:41">
       <c r="A487" s="2" t="s">
         <v>422</v>
       </c>
@@ -64980,7 +64949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:41">
+    <row r="488" hidden="1" spans="1:41">
       <c r="A488" s="2" t="s">
         <v>424</v>
       </c>
@@ -65105,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:41">
+    <row r="489" hidden="1" spans="1:41">
       <c r="A489" s="2" t="s">
         <v>426</v>
       </c>
@@ -65230,7 +65199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:41">
+    <row r="490" hidden="1" spans="1:41">
       <c r="A490" s="2" t="s">
         <v>428</v>
       </c>
@@ -65355,7 +65324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:41">
+    <row r="491" hidden="1" spans="1:41">
       <c r="A491" s="2" t="s">
         <v>430</v>
       </c>
@@ -65480,7 +65449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:41">
+    <row r="492" hidden="1" spans="1:41">
       <c r="A492" s="2" t="s">
         <v>432</v>
       </c>
@@ -65605,7 +65574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:41">
+    <row r="493" hidden="1" spans="1:41">
       <c r="A493" s="2" t="s">
         <v>434</v>
       </c>
@@ -65730,7 +65699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:41">
+    <row r="494" hidden="1" spans="1:41">
       <c r="A494" s="2" t="s">
         <v>435</v>
       </c>
@@ -65855,7 +65824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:41">
+    <row r="495" hidden="1" spans="1:41">
       <c r="A495" s="2" t="s">
         <v>436</v>
       </c>
@@ -65980,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:41">
+    <row r="496" hidden="1" spans="1:41">
       <c r="A496" s="2" t="s">
         <v>437</v>
       </c>
@@ -66105,7 +66074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:41">
+    <row r="497" hidden="1" spans="1:41">
       <c r="A497" s="2" t="s">
         <v>439</v>
       </c>
@@ -66230,7 +66199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:41">
+    <row r="498" hidden="1" spans="1:41">
       <c r="A498" s="2" t="s">
         <v>95</v>
       </c>
@@ -66321,7 +66290,7 @@
       <c r="AD498" s="2">
         <v>354.667</v>
       </c>
-      <c r="AE498" s="5">
+      <c r="AE498" s="4">
         <v>698.667</v>
       </c>
       <c r="AF498" s="2">
@@ -66333,19 +66302,19 @@
       <c r="AH498" s="2">
         <v>0</v>
       </c>
-      <c r="AI498" s="5">
+      <c r="AI498" s="4">
         <v>260.667</v>
       </c>
-      <c r="AJ498" s="5">
+      <c r="AJ498" s="4">
         <v>12.667</v>
       </c>
       <c r="AK498" s="2">
         <v>157.667</v>
       </c>
-      <c r="AL498" s="5">
+      <c r="AL498" s="4">
         <v>74.667</v>
       </c>
-      <c r="AM498" s="5">
+      <c r="AM498" s="4">
         <v>561.667</v>
       </c>
       <c r="AN498" s="2">
@@ -66355,7 +66324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:41">
+    <row r="499" hidden="1" spans="1:41">
       <c r="A499" s="2" t="s">
         <v>440</v>
       </c>
@@ -66480,7 +66449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:41">
+    <row r="500" hidden="1" spans="1:41">
       <c r="A500" s="2" t="s">
         <v>441</v>
       </c>
@@ -66605,7 +66574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:41">
+    <row r="501" hidden="1" spans="1:41">
       <c r="A501" s="2" t="s">
         <v>443</v>
       </c>
@@ -66730,7 +66699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:41">
+    <row r="502" hidden="1" spans="1:41">
       <c r="A502" s="2" t="s">
         <v>113</v>
       </c>
@@ -66855,7 +66824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:41">
+    <row r="503" hidden="1" spans="1:41">
       <c r="A503" s="2" t="s">
         <v>447</v>
       </c>
@@ -66980,7 +66949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:41">
+    <row r="504" hidden="1" spans="1:41">
       <c r="A504" s="2" t="s">
         <v>448</v>
       </c>
@@ -67105,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:41">
+    <row r="505" hidden="1" spans="1:41">
       <c r="A505" s="2" t="s">
         <v>449</v>
       </c>
@@ -67230,7 +67199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:41">
+    <row r="506" hidden="1" spans="1:41">
       <c r="A506" s="2" t="s">
         <v>451</v>
       </c>
@@ -67355,7 +67324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:41">
+    <row r="507" hidden="1" spans="1:41">
       <c r="A507" s="2" t="s">
         <v>454</v>
       </c>
@@ -67480,7 +67449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:41">
+    <row r="508" hidden="1" spans="1:41">
       <c r="A508" s="2" t="s">
         <v>441</v>
       </c>
@@ -67605,7 +67574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:41">
+    <row r="509" hidden="1" spans="1:41">
       <c r="A509" s="2" t="s">
         <v>455</v>
       </c>
@@ -67730,7 +67699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:41">
+    <row r="510" hidden="1" spans="1:41">
       <c r="A510" s="2" t="s">
         <v>456</v>
       </c>
@@ -67855,7 +67824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:41">
+    <row r="511" hidden="1" spans="1:41">
       <c r="A511" s="2" t="s">
         <v>457</v>
       </c>
@@ -67980,7 +67949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:41">
+    <row r="512" hidden="1" spans="1:41">
       <c r="A512" s="2" t="s">
         <v>460</v>
       </c>
@@ -68105,7 +68074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:41">
+    <row r="513" hidden="1" spans="1:41">
       <c r="A513" s="2" t="s">
         <v>461</v>
       </c>
@@ -68230,7 +68199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:41">
+    <row r="514" hidden="1" spans="1:41">
       <c r="A514" s="2" t="s">
         <v>463</v>
       </c>
@@ -68355,7 +68324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:41">
+    <row r="515" hidden="1" spans="1:41">
       <c r="A515" s="2" t="s">
         <v>465</v>
       </c>
@@ -68481,7 +68450,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D515" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AO515" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="B"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="E1:BX259" columnSort="1">
